--- a/Kế hoạch làm việc nhóm/230325_FIT_KeHoachLamViec_Nhom4.xlsx
+++ b/Kế hoạch làm việc nhóm/230325_FIT_KeHoachLamViec_Nhom4.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTCSN\Kế hoạch làm việc nhóm\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3DDE42-AC03-423F-9652-D718F08396CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Trang tính1" sheetId="1" r:id="rId4"/>
+    <sheet name="Trang tính1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>KẾ HOẠCH LÀM VIỆC NHÓM</t>
   </si>
@@ -23,19 +32,19 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="14.0"/>
       </rPr>
       <t xml:space="preserve">Thành viên nhóm – Team members:
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <color rgb="FF000000"/>
-        <sz val="14.0"/>
       </rPr>
       <t>1. Trịnh Ngọc Anh
 2. Nguyễn Vũ Mai Anh
@@ -88,44 +97,79 @@
 - Tìm tài liệu tham khảo
 - Tìm hiểu về  phần mềm thiết kế giao diện</t>
   </si>
+  <si>
+    <t>- Tiếp tục tìm hiểu cách sử dụng Github</t>
+  </si>
+  <si>
+    <t>28/03/2023</t>
+  </si>
+  <si>
+    <t>31/03/2023</t>
+  </si>
+  <si>
+    <t>- Tiếp tục tìm tài liệu (bao gồm cả tiếng anh)</t>
+  </si>
+  <si>
+    <t>- Cài đặt và tìm hiểu cách sử dụng Figma</t>
+  </si>
+  <si>
+    <t>- Tìm hiểu khung nội dung chính của
+website chủ để của nhóm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="d.m.yyyy"/>
+    <numFmt numFmtId="164" formatCode="d\.m\.yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15.0"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font/>
-    <font>
-      <b/>
-      <sz val="14.0"/>
+      <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -133,7 +177,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -142,42 +186,40 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
-    <border/>
+  <borders count="7">
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -187,67 +229,144 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+  <cellXfs count="25">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -437,149 +556,235 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="84" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="37.75"/>
-    <col customWidth="1" min="3" max="3" width="15.88"/>
-    <col customWidth="1" min="4" max="4" width="12.75"/>
-    <col customWidth="1" min="5" max="5" width="14.13"/>
-    <col customWidth="1" min="7" max="7" width="13.38"/>
-    <col customWidth="1" min="8" max="8" width="21.38"/>
+    <col min="2" max="2" width="37.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.5" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" ht="76.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" ht="116.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="9">
-        <v>44998.0</v>
-      </c>
-      <c r="D5" s="9">
-        <v>44999.0</v>
-      </c>
-      <c r="E5" s="9">
-        <v>44999.0</v>
-      </c>
-      <c r="F5" s="9">
-        <v>44999.0</v>
-      </c>
-      <c r="G5" s="10" t="s">
+      <c r="C5" s="4">
+        <v>44998</v>
+      </c>
+      <c r="D5" s="4">
+        <v>44999</v>
+      </c>
+      <c r="E5" s="4">
+        <v>44999</v>
+      </c>
+      <c r="F5" s="4">
+        <v>44999</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="94.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12">
+        <v>2</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="12">
-        <v>45006.0</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="12">
-        <v>45013.0</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="14" t="s">
+      <c r="C6" s="14">
+        <v>45006</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="14">
+        <v>45013</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="11"/>
+      <c r="I6" s="18"/>
+    </row>
+    <row r="7" spans="1:9" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19">
+        <v>3</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:9" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23">
+        <v>45020</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" spans="1:9" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23">
+        <v>45020</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23">
+        <v>45020</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A7:A10"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>